--- a/data/trans_dic/P6903-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 36,49</t>
+          <t>14,77; 35,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,06; 36,42</t>
+          <t>11,84; 34,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,59; 52,24</t>
+          <t>20,53; 50,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,98; 48,34</t>
+          <t>19,53; 47,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,59; 38,93</t>
+          <t>13,2; 37,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 40,23</t>
+          <t>13,97; 40,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,12; 61,54</t>
+          <t>31,72; 62,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,76; 57,23</t>
+          <t>34,79; 57,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,7; 32,29</t>
+          <t>16,98; 32,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 33,25</t>
+          <t>15,41; 33,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,27; 50,88</t>
+          <t>31,11; 52,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,36; 48,66</t>
+          <t>31,56; 50,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,46; 39,65</t>
+          <t>11,65; 37,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,55; 44,06</t>
+          <t>14,13; 43,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,1; 59,86</t>
+          <t>23,04; 59,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 37,52</t>
+          <t>12,49; 36,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 33,18</t>
+          <t>7,98; 33,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 35,29</t>
+          <t>3,4; 34,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,91; 53,33</t>
+          <t>18,6; 51,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,93; 42,06</t>
+          <t>15,93; 39,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,25; 28,83</t>
+          <t>12,08; 30,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,51; 33,24</t>
+          <t>12,3; 31,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,25; 51,75</t>
+          <t>24,7; 50,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,52; 34,51</t>
+          <t>17,66; 35,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,0; 47,05</t>
+          <t>26,97; 46,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,69; 32,46</t>
+          <t>13,88; 33,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,54; 47,64</t>
+          <t>23,87; 47,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,14; 47,99</t>
+          <t>20,47; 51,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 57,93</t>
+          <t>7,2; 56,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,47; 58,42</t>
+          <t>21,46; 56,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,82; 89,93</t>
+          <t>22,27; 89,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,47; 55,86</t>
+          <t>18,56; 56,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,17; 44,76</t>
+          <t>26,75; 46,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,96; 36,23</t>
+          <t>20,17; 37,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,91; 51,27</t>
+          <t>27,88; 52,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 47,03</t>
+          <t>23,22; 46,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 39,81</t>
+          <t>26,16; 40,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,7; 31,56</t>
+          <t>15,28; 30,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,07; 49,36</t>
+          <t>32,41; 49,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,08; 47,09</t>
+          <t>28,02; 46,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,01; 45,68</t>
+          <t>20,0; 46,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,43; 54,13</t>
+          <t>29,58; 54,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,04; 49,32</t>
+          <t>28,85; 48,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,75; 46,8</t>
+          <t>31,38; 47,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,56; 39,15</t>
+          <t>27,12; 38,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,27; 37,09</t>
+          <t>23,34; 36,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,76; 46,28</t>
+          <t>33,18; 47,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,26; 44,55</t>
+          <t>31,89; 44,81</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,81; 48,32</t>
+          <t>23,1; 48,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,97; 48,06</t>
+          <t>17,12; 46,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,89; 51,5</t>
+          <t>27,78; 53,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,09; 53,42</t>
+          <t>27,41; 55,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,8; 56,95</t>
+          <t>31,22; 56,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,73; 59,59</t>
+          <t>28,16; 59,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,0; 59,04</t>
+          <t>30,6; 59,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,53; 56,22</t>
+          <t>17,49; 56,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,53; 48,67</t>
+          <t>30,48; 48,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,62; 47,71</t>
+          <t>26,54; 48,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32,98; 51,39</t>
+          <t>32,68; 51,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,38; 51,85</t>
+          <t>21,44; 51,73</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,22; 35,99</t>
+          <t>27,29; 36,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,38; 28,66</t>
+          <t>19,21; 28,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,49; 44,56</t>
+          <t>33,68; 44,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,98; 40,16</t>
+          <t>28,69; 40,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,12; 37,58</t>
+          <t>25,09; 37,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,66; 41,32</t>
+          <t>28,46; 41,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,78; 48,52</t>
+          <t>35,45; 48,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,02; 45,64</t>
+          <t>28,34; 44,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,72; 34,98</t>
+          <t>27,76; 35,01</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24,38; 32,36</t>
+          <t>24,5; 32,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>35,89; 44,44</t>
+          <t>35,71; 44,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,3; 40,76</t>
+          <t>30,28; 40,44</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que se siente agotado a todas horas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15727</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12182</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16594</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14432</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11074</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10973</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21427</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27184</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26801</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23155</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>38021</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>41616</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9616; 23202</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6566; 19297</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9629; 23679</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8947; 21948</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6156; 17282</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6128; 17732</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14571; 28700</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20392; 33574</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18972; 36250</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15306; 33393</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28886; 48409</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>32952; 52238</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9538</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9885</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12303</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11656</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7399</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3782</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9933</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11882</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16937</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13667</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22237</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>23538</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4934; 15896</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5134; 15891</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6967; 17846</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6235; 18360</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3320; 13781</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>906; 9131</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5468; 15098</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6716; 16703</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10146; 25290</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7745; 20045</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14729; 29893</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16262; 32583</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36174</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17130</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24093</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18830</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4817</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13213</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5562</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6488</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40990</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30343</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29655</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>25318</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26981; 46945</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10874; 25857</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15965; 32090</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11611; 28968</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1173; 9265</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7236; 19159</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2131; 8576</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3311; 10166</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31111; 53975</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22601; 42009</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21316; 40235</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17314; 35002</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>65811</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25809</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>55764</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>49610</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15955</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28046</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>31647</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>41014</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>81766</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>53855</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>87411</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>90624</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>52535; 80452</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17438; 35355</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44363; 67830</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>37321; 61768</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9991; 23110</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19758; 36535</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24260; 41144</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>33189; 50238</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>67998; 97118</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>42238; 66887</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73310; 104620</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>76217; 107088</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21968</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12269</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27195</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>20657</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>28507</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18458</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21277</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>49724</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>50475</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>30727</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>48472</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>70380</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14786; 30816</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6847; 18508</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19193; 36622</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14026; 28173</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>20491; 36792</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12295; 26057</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14482; 28306</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22255; 71448</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>39512; 63076</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>22206; 40306</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>38043; 59888</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>38253; 92297</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>149217</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>77275</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>135950</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>115185</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>67753</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>74473</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>89846</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>136291</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>216970</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>151748</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>225796</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>251476</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>128890; 170546</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>62308; 92651</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>117870; 154859</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>96638; 137275</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>55237; 83314</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>61107; 89027</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>76669; 105873</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>99642; 156868</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>192224; 242444</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>132031; 174382</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>202214; 250839</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>208444; 278417</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P6903-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
